--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_2002.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_2002.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>46.460000000000001</t>
+          <t>46.46</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>37401.879999999997</t>
+          <t>37401.88</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>4521.3500000000004</t>
+          <t>4521.35</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>64528.879999999997</t>
+          <t>64528.88</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>555.60000000000002</t>
+          <t>555.6</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>152.25999999999999</t>
+          <t>152.26</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>1050.1199999999999</t>
+          <t>1050.12</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>232.31999999999999</t>
+          <t>232.32</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>387308.84000000003</t>
+          <t>387308.84</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>659.08000000000004</t>
+          <t>659.08</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>3883.3000000000002</t>
+          <t>3883.3</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>7224.7399999999998</t>
+          <t>7224.74</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>3554.7600000000002</t>
+          <t>3554.76</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>132.53999999999999</t>
+          <t>132.54</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>3875.3400000000001</t>
+          <t>3875.34</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>3881.5900000000001</t>
+          <t>3881.59</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>537.23000000000002</t>
+          <t>537.23</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>181.25999999999999</t>
+          <t>181.26</t>
         </is>
       </c>
       <c r="E49" s="0" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>2640.5999999999999</t>
+          <t>2640.6</t>
         </is>
       </c>
       <c r="E50" s="0" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>1621.5899999999999</t>
+          <t>1621.59</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>698.82000000000005</t>
+          <t>698.82</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>17.969999999999999</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>37343.730000000003</t>
+          <t>37343.73</t>
         </is>
       </c>
       <c r="E58" s="0" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>4010.1700000000001</t>
+          <t>4010.17</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>199.18000000000001</t>
+          <t>199.18</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>205.06999999999999</t>
+          <t>205.07</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>552.41999999999996</t>
+          <t>552.42</t>
         </is>
       </c>
       <c r="E67" s="0" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>288369.51000000001</t>
+          <t>288369.51</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>5914.8900000000003</t>
+          <t>5914.89</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>42.420000000000002</t>
+          <t>42.42</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>1609.1199999999999</t>
+          <t>1609.12</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>676.29999999999995</t>
+          <t>676.3</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>31962.290000000001</t>
+          <t>31962.29</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>8971.1299999999992</t>
+          <t>8971.13</t>
         </is>
       </c>
       <c r="E80" s="0" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="D81" s="0" t="inlineStr">
         <is>
-          <t>198.49000000000001</t>
+          <t>198.49</t>
         </is>
       </c>
       <c r="E81" s="0" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>863.85000000000002</t>
+          <t>863.85</t>
         </is>
       </c>
       <c r="E82" s="0" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>270910.64000000001</t>
+          <t>270910.64</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>16128.030000000001</t>
+          <t>16128.03</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>26909.849999999999</t>
+          <t>26909.85</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>3119.9699999999998</t>
+          <t>3119.97</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>22.699999999999999</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="E94" s="0" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D95" s="0" t="inlineStr">
         <is>
-          <t>39.490000000000002</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="E95" s="0" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>261.08999999999997</t>
+          <t>261.09</t>
         </is>
       </c>
       <c r="E96" s="0" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>8506.5400000000009</t>
+          <t>8506.54</t>
         </is>
       </c>
       <c r="E97" s="0" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>906.91999999999996</t>
+          <t>906.92</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>459.75999999999999</t>
+          <t>459.76</t>
         </is>
       </c>
       <c r="E102" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>3323.6700000000001</t>
+          <t>3323.67</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="D105" s="0" t="inlineStr">
         <is>
-          <t>207.08000000000001</t>
+          <t>207.08</t>
         </is>
       </c>
       <c r="E105" s="0" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>80.269999999999996</t>
+          <t>80.27</t>
         </is>
       </c>
       <c r="E109" s="0" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>4964.8400000000001</t>
+          <t>4964.84</t>
         </is>
       </c>
       <c r="E113" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>16337.450000000001</t>
+          <t>16337.45</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D117" s="0" t="inlineStr">
         <is>
-          <t>96.409999999999997</t>
+          <t>96.41</t>
         </is>
       </c>
       <c r="E117" s="0" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="D125" s="0" t="inlineStr">
         <is>
-          <t>2180.0900000000001</t>
+          <t>2180.09</t>
         </is>
       </c>
       <c r="E125" s="0" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D126" s="0" t="inlineStr">
         <is>
-          <t>2281.1900000000001</t>
+          <t>2281.19</t>
         </is>
       </c>
       <c r="E126" s="0" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="D143" s="0" t="inlineStr">
         <is>
-          <t>2396.8200000000002</t>
+          <t>2396.82</t>
         </is>
       </c>
       <c r="E143" s="0" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>21598.009999999998</t>
+          <t>21598.01</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="D154" s="0" t="inlineStr">
         <is>
-          <t>33542.779999999999</t>
+          <t>33542.78</t>
         </is>
       </c>
       <c r="E154" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>5587609.1600000001</t>
+          <t>5587609.16</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
-          <t>275942.10999999999</t>
+          <t>275942.11</t>
         </is>
       </c>
       <c r="E157" s="0" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t>438962.53000000003</t>
+          <t>438962.53</t>
         </is>
       </c>
       <c r="E158" s="0" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D159" s="0" t="inlineStr">
         <is>
-          <t>23448.200000000001</t>
+          <t>23448.2</t>
         </is>
       </c>
       <c r="E159" s="0" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="D161" s="0" t="inlineStr">
         <is>
-          <t>1209.6400000000001</t>
+          <t>1209.64</t>
         </is>
       </c>
       <c r="E161" s="0" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>251504.17999999999</t>
+          <t>251504.18</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D164" s="0" t="inlineStr">
         <is>
-          <t>568486.79000000004</t>
+          <t>568486.79</t>
         </is>
       </c>
       <c r="E164" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>3502008.3199999998</t>
+          <t>3502008.32</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>2439136.6099999999</t>
+          <t>2439136.61</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="D169" s="0" t="inlineStr">
         <is>
-          <t>25.449999999999999</t>
+          <t>25.45</t>
         </is>
       </c>
       <c r="E169" s="0" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D172" s="0" t="inlineStr">
         <is>
-          <t>260944.64000000001</t>
+          <t>260944.64</t>
         </is>
       </c>
       <c r="E172" s="0" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
-          <t>158049.57999999999</t>
+          <t>158049.58</t>
         </is>
       </c>
       <c r="E176" s="0" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="D178" s="0" t="inlineStr">
         <is>
-          <t>25859.220000000001</t>
+          <t>25859.22</t>
         </is>
       </c>
       <c r="E178" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>182080.76999999999</t>
+          <t>182080.77</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D180" s="0" t="inlineStr">
         <is>
-          <t>8191.2799999999997</t>
+          <t>8191.28</t>
         </is>
       </c>
       <c r="E180" s="0" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>1558580.6000000001</t>
+          <t>1558580.6</t>
         </is>
       </c>
       <c r="E182" s="0" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>40792.010000000002</t>
+          <t>40792.01</t>
         </is>
       </c>
       <c r="E183" s="0" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D185" s="0" t="inlineStr">
         <is>
-          <t>23711.509999999998</t>
+          <t>23711.51</t>
         </is>
       </c>
       <c r="E185" s="0" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="D186" s="0" t="inlineStr">
         <is>
-          <t>19474.189999999999</t>
+          <t>19474.19</t>
         </is>
       </c>
       <c r="E186" s="0" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>32624.439999999999</t>
+          <t>32624.44</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="D188" s="0" t="inlineStr">
         <is>
-          <t>79568.740000000005</t>
+          <t>79568.74</t>
         </is>
       </c>
       <c r="E188" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D189" s="0" t="inlineStr">
         <is>
-          <t>36199.199999999997</t>
+          <t>36199.2</t>
         </is>
       </c>
       <c r="E189" s="0" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>896957.03000000003</t>
+          <t>896957.03</t>
         </is>
       </c>
       <c r="E191" s="0" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="D192" s="0" t="inlineStr">
         <is>
-          <t>2909025.6099999999</t>
+          <t>2909025.61</t>
         </is>
       </c>
       <c r="E192" s="0" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="D193" s="0" t="inlineStr">
         <is>
-          <t>469.47000000000003</t>
+          <t>469.47</t>
         </is>
       </c>
       <c r="E193" s="0" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D194" s="0" t="inlineStr">
         <is>
-          <t>1011.9299999999999</t>
+          <t>1011.93</t>
         </is>
       </c>
       <c r="E194" s="0" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="D195" s="0" t="inlineStr">
         <is>
-          <t>85.930000000000007</t>
+          <t>85.93</t>
         </is>
       </c>
       <c r="E195" s="0" t="inlineStr">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="D197" s="0" t="inlineStr">
         <is>
-          <t>63873.860000000001</t>
+          <t>63873.86</t>
         </is>
       </c>
       <c r="E197" s="0" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D198" s="0" t="inlineStr">
         <is>
-          <t>7591.3100000000004</t>
+          <t>7591.31</t>
         </is>
       </c>
       <c r="E198" s="0" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="D199" s="0" t="inlineStr">
         <is>
-          <t>164794.79999999999</t>
+          <t>164794.8</t>
         </is>
       </c>
       <c r="E199" s="0" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D201" s="0" t="inlineStr">
         <is>
-          <t>2771.8200000000002</t>
+          <t>2771.82</t>
         </is>
       </c>
       <c r="E201" s="0" t="inlineStr">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="D203" s="0" t="inlineStr">
         <is>
-          <t>7194.5500000000002</t>
+          <t>7194.55</t>
         </is>
       </c>
       <c r="E203" s="0" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D204" s="0" t="inlineStr">
         <is>
-          <t>1169528.6899999999</t>
+          <t>1169528.69</t>
         </is>
       </c>
       <c r="E204" s="0" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D206" s="0" t="inlineStr">
         <is>
-          <t>34985.010000000002</t>
+          <t>34985.01</t>
         </is>
       </c>
       <c r="E206" s="0" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D211" s="0" t="inlineStr">
         <is>
-          <t>27168.549999999999</t>
+          <t>27168.55</t>
         </is>
       </c>
       <c r="E211" s="0" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="D213" s="0" t="inlineStr">
         <is>
-          <t>13757.059999999999</t>
+          <t>13757.06</t>
         </is>
       </c>
       <c r="E213" s="0" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D216" s="0" t="inlineStr">
         <is>
-          <t>24074.619999999999</t>
+          <t>24074.62</t>
         </is>
       </c>
       <c r="E216" s="0" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="D219" s="0" t="inlineStr">
         <is>
-          <t>24022.369999999999</t>
+          <t>24022.37</t>
         </is>
       </c>
       <c r="E219" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D221" s="0" t="inlineStr">
         <is>
-          <t>41361.730000000003</t>
+          <t>41361.73</t>
         </is>
       </c>
       <c r="E221" s="0" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="D222" s="0" t="inlineStr">
         <is>
-          <t>354.35000000000002</t>
+          <t>354.35</t>
         </is>
       </c>
       <c r="E222" s="0" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D225" s="0" t="inlineStr">
         <is>
-          <t>862.86000000000001</t>
+          <t>862.86</t>
         </is>
       </c>
       <c r="E225" s="0" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="D228" s="0" t="inlineStr">
         <is>
-          <t>1746.1600000000001</t>
+          <t>1746.16</t>
         </is>
       </c>
       <c r="E228" s="0" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>8310.0699999999997</t>
+          <t>8310.07</t>
         </is>
       </c>
       <c r="E229" s="0" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D230" s="0" t="inlineStr">
         <is>
-          <t>37938.989999999998</t>
+          <t>37938.99</t>
         </is>
       </c>
       <c r="E230" s="0" t="inlineStr">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="D231" s="0" t="inlineStr">
         <is>
-          <t>1719.6900000000001</t>
+          <t>1719.69</t>
         </is>
       </c>
       <c r="E231" s="0" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="D233" s="0" t="inlineStr">
         <is>
-          <t>10934.780000000001</t>
+          <t>10934.78</t>
         </is>
       </c>
       <c r="E233" s="0" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="D234" s="0" t="inlineStr">
         <is>
-          <t>211068.82999999999</t>
+          <t>211068.83</t>
         </is>
       </c>
       <c r="E234" s="0" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t>6372462.8499999996</t>
+          <t>6372462.85</t>
         </is>
       </c>
       <c r="E235" s="0" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="D236" s="0" t="inlineStr">
         <is>
-          <t>16056.209999999999</t>
+          <t>16056.21</t>
         </is>
       </c>
       <c r="E236" s="0" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D238" s="0" t="inlineStr">
         <is>
-          <t>206461.39000000001</t>
+          <t>206461.39</t>
         </is>
       </c>
       <c r="E238" s="0" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="D239" s="0" t="inlineStr">
         <is>
-          <t>8819.9400000000005</t>
+          <t>8819.94</t>
         </is>
       </c>
       <c r="E239" s="0" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="D243" s="0" t="inlineStr">
         <is>
-          <t>3732.6900000000001</t>
+          <t>3732.69</t>
         </is>
       </c>
       <c r="E243" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>36190.940000000002</t>
+          <t>36190.94</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="D245" s="0" t="inlineStr">
         <is>
-          <t>22965.369999999999</t>
+          <t>22965.37</t>
         </is>
       </c>
       <c r="E245" s="0" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="D248" s="0" t="inlineStr">
         <is>
-          <t>11553.889999999999</t>
+          <t>11553.89</t>
         </is>
       </c>
       <c r="E248" s="0" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="D249" s="0" t="inlineStr">
         <is>
-          <t>950.85000000000002</t>
+          <t>950.85</t>
         </is>
       </c>
       <c r="E249" s="0" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D250" s="0" t="inlineStr">
         <is>
-          <t>25126.790000000001</t>
+          <t>25126.79</t>
         </is>
       </c>
       <c r="E250" s="0" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="D252" s="0" t="inlineStr">
         <is>
-          <t>28024.849999999999</t>
+          <t>28024.85</t>
         </is>
       </c>
       <c r="E252" s="0" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>79532.160000000003</t>
+          <t>79532.16</t>
         </is>
       </c>
       <c r="E256" s="0" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="D257" s="0" t="inlineStr">
         <is>
-          <t>92363.679999999993</t>
+          <t>92363.68</t>
         </is>
       </c>
       <c r="E257" s="0" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D258" s="0" t="inlineStr">
         <is>
-          <t>34943.099999999999</t>
+          <t>34943.1</t>
         </is>
       </c>
       <c r="E258" s="0" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="D262" s="0" t="inlineStr">
         <is>
-          <t>756.22000000000003</t>
+          <t>756.22</t>
         </is>
       </c>
       <c r="E262" s="0" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="D265" s="0" t="inlineStr">
         <is>
-          <t>238.59999999999999</t>
+          <t>238.6</t>
         </is>
       </c>
       <c r="E265" s="0" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D268" s="0" t="inlineStr">
         <is>
-          <t>1785.6500000000001</t>
+          <t>1785.65</t>
         </is>
       </c>
       <c r="E268" s="0" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="D271" s="0" t="inlineStr">
         <is>
-          <t>710.73000000000002</t>
+          <t>710.73</t>
         </is>
       </c>
       <c r="E271" s="0" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="D275" s="0" t="inlineStr">
         <is>
-          <t>8363.3999999999996</t>
+          <t>8363.4</t>
         </is>
       </c>
       <c r="E275" s="0" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D284" s="0" t="inlineStr">
         <is>
-          <t>4093227.6400000001</t>
+          <t>4093227.64</t>
         </is>
       </c>
       <c r="E284" s="0" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="D286" s="0" t="inlineStr">
         <is>
-          <t>31613.150000000001</t>
+          <t>31613.15</t>
         </is>
       </c>
       <c r="E286" s="0" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="D288" s="0" t="inlineStr">
         <is>
-          <t>10933.370000000001</t>
+          <t>10933.37</t>
         </is>
       </c>
       <c r="E288" s="0" t="inlineStr">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="D289" s="0" t="inlineStr">
         <is>
-          <t>404.39999999999998</t>
+          <t>404.4</t>
         </is>
       </c>
       <c r="E289" s="0" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="D291" s="0" t="inlineStr">
         <is>
-          <t>3335.0700000000002</t>
+          <t>3335.07</t>
         </is>
       </c>
       <c r="E291" s="0" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D294" s="0" t="inlineStr">
         <is>
-          <t>3134.0999999999999</t>
+          <t>3134.1</t>
         </is>
       </c>
       <c r="E294" s="0" t="inlineStr">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="D295" s="0" t="inlineStr">
         <is>
-          <t>40044.209999999999</t>
+          <t>40044.21</t>
         </is>
       </c>
       <c r="E295" s="0" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>66906.100000000006</t>
+          <t>66906.1</t>
         </is>
       </c>
       <c r="E297" s="0" t="inlineStr">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="D299" s="0" t="inlineStr">
         <is>
-          <t>6584.3900000000003</t>
+          <t>6584.39</t>
         </is>
       </c>
       <c r="E299" s="0" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="D310" s="0" t="inlineStr">
         <is>
-          <t>20761.389999999999</t>
+          <t>20761.39</t>
         </is>
       </c>
       <c r="E310" s="0" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="D316" s="0" t="inlineStr">
         <is>
-          <t>2838.0799999999999</t>
+          <t>2838.08</t>
         </is>
       </c>
       <c r="E316" s="0" t="inlineStr">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="D322" s="0" t="inlineStr">
         <is>
-          <t>3841.8000000000002</t>
+          <t>3841.8</t>
         </is>
       </c>
       <c r="E322" s="0" t="inlineStr">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="D323" s="0" t="inlineStr">
         <is>
-          <t>786.48000000000002</t>
+          <t>786.48</t>
         </is>
       </c>
       <c r="E323" s="0" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
-          <t>8244564.5199999996</t>
+          <t>8244564.52</t>
         </is>
       </c>
       <c r="E326" s="0" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="D327" s="0" t="inlineStr">
         <is>
-          <t>10726.709999999999</t>
+          <t>10726.71</t>
         </is>
       </c>
       <c r="E327" s="0" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="D328" s="0" t="inlineStr">
         <is>
-          <t>75645.240000000005</t>
+          <t>75645.24</t>
         </is>
       </c>
       <c r="E328" s="0" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D334" s="0" t="inlineStr">
         <is>
-          <t>123.45999999999999</t>
+          <t>123.46</t>
         </is>
       </c>
       <c r="E334" s="0" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="D362" s="0" t="inlineStr">
         <is>
-          <t>85320.160000000003</t>
+          <t>85320.16</t>
         </is>
       </c>
       <c r="E362" s="0" t="inlineStr">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D363" s="0" t="inlineStr">
         <is>
-          <t>8908.6599999999999</t>
+          <t>8908.66</t>
         </is>
       </c>
       <c r="E363" s="0" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="D367" s="0" t="inlineStr">
         <is>
-          <t>5890.1499999999996</t>
+          <t>5890.15</t>
         </is>
       </c>
       <c r="E367" s="0" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>9122.3500000000004</t>
+          <t>9122.35</t>
         </is>
       </c>
       <c r="E370" s="0" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>18980.540000000001</t>
+          <t>18980.54</t>
         </is>
       </c>
       <c r="E373" s="0" t="inlineStr">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="D383" s="0" t="inlineStr">
         <is>
-          <t>11273.440000000001</t>
+          <t>11273.44</t>
         </is>
       </c>
       <c r="E383" s="0" t="inlineStr">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="D387" s="0" t="inlineStr">
         <is>
-          <t>79.870000000000005</t>
+          <t>79.87</t>
         </is>
       </c>
       <c r="E387" s="0" t="inlineStr">
@@ -11998,7 +11998,7 @@
       </c>
       <c r="D431" s="0" t="inlineStr">
         <is>
-          <t>2324.1999999999998</t>
+          <t>2324.2</t>
         </is>
       </c>
       <c r="E431" s="0" t="inlineStr">
@@ -12106,7 +12106,7 @@
       </c>
       <c r="D435" s="0" t="inlineStr">
         <is>
-          <t>7.9299999999999997</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="E435" s="0" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="D445" s="0" t="inlineStr">
         <is>
-          <t>727.40999999999997</t>
+          <t>727.41</t>
         </is>
       </c>
       <c r="E445" s="0" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="D489" s="0" t="inlineStr">
         <is>
-          <t>19.199999999999999</t>
+          <t>19.2</t>
         </is>
       </c>
       <c r="E489" s="0" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="D506" s="0" t="inlineStr">
         <is>
-          <t>57622.889999999999</t>
+          <t>57622.89</t>
         </is>
       </c>
       <c r="E506" s="0" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="D507" s="0" t="inlineStr">
         <is>
-          <t>42609.279999999999</t>
+          <t>42609.28</t>
         </is>
       </c>
       <c r="E507" s="0" t="inlineStr">
@@ -14131,7 +14131,7 @@
       </c>
       <c r="D510" s="0" t="inlineStr">
         <is>
-          <t>160.93000000000001</t>
+          <t>160.93</t>
         </is>
       </c>
       <c r="E510" s="0" t="inlineStr">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="D512" s="0" t="inlineStr">
         <is>
-          <t>150367.39999999999</t>
+          <t>150367.4</t>
         </is>
       </c>
       <c r="E512" s="0" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="D513" s="0" t="inlineStr">
         <is>
-          <t>149.58000000000001</t>
+          <t>149.58</t>
         </is>
       </c>
       <c r="E513" s="0" t="inlineStr">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="D552" s="0" t="inlineStr">
         <is>
-          <t>68220.309999999998</t>
+          <t>68220.31</t>
         </is>
       </c>
       <c r="E552" s="0" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="D557" s="0" t="inlineStr">
         <is>
-          <t>89052.399999999994</t>
+          <t>89052.4</t>
         </is>
       </c>
       <c r="E557" s="0" t="inlineStr">
@@ -15481,7 +15481,7 @@
       </c>
       <c r="D560" s="0" t="inlineStr">
         <is>
-          <t>261.86000000000001</t>
+          <t>261.86</t>
         </is>
       </c>
       <c r="E560" s="0" t="inlineStr">
@@ -15535,7 +15535,7 @@
       </c>
       <c r="D562" s="0" t="inlineStr">
         <is>
-          <t>181.25999999999999</t>
+          <t>181.26</t>
         </is>
       </c>
       <c r="E562" s="0" t="inlineStr">
@@ -15670,7 +15670,7 @@
       </c>
       <c r="D567" s="0" t="inlineStr">
         <is>
-          <t>30.510000000000002</t>
+          <t>30.51</t>
         </is>
       </c>
       <c r="E567" s="0" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="D575" s="0" t="inlineStr">
         <is>
-          <t>219886.76999999999</t>
+          <t>219886.77</t>
         </is>
       </c>
       <c r="E575" s="0" t="inlineStr">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="D580" s="0" t="inlineStr">
         <is>
-          <t>7.7999999999999998</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="E580" s="0" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="D582" s="0" t="inlineStr">
         <is>
-          <t>14.279999999999999</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="E582" s="0" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="D589" s="0" t="inlineStr">
         <is>
-          <t>625.99000000000001</t>
+          <t>625.99</t>
         </is>
       </c>
       <c r="E589" s="0" t="inlineStr">
@@ -16426,7 +16426,7 @@
       </c>
       <c r="D595" s="0" t="inlineStr">
         <is>
-          <t>16823.040000000001</t>
+          <t>16823.04</t>
         </is>
       </c>
       <c r="E595" s="0" t="inlineStr">
@@ -16831,7 +16831,7 @@
       </c>
       <c r="D610" s="0" t="inlineStr">
         <is>
-          <t>3634.6999999999998</t>
+          <t>3634.7</t>
         </is>
       </c>
       <c r="E610" s="0" t="inlineStr">
@@ -17020,7 +17020,7 @@
       </c>
       <c r="D617" s="0" t="inlineStr">
         <is>
-          <t>36.969999999999999</t>
+          <t>36.97</t>
         </is>
       </c>
       <c r="E617" s="0" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="D634" s="0" t="inlineStr">
         <is>
-          <t>224.41999999999999</t>
+          <t>224.42</t>
         </is>
       </c>
       <c r="E634" s="0" t="inlineStr">
@@ -18910,7 +18910,7 @@
       </c>
       <c r="D687" s="0" t="inlineStr">
         <is>
-          <t>4690.1300000000001</t>
+          <t>4690.13</t>
         </is>
       </c>
       <c r="E687" s="0" t="inlineStr">
@@ -18964,7 +18964,7 @@
       </c>
       <c r="D689" s="0" t="inlineStr">
         <is>
-          <t>6513.8800000000001</t>
+          <t>6513.88</t>
         </is>
       </c>
       <c r="E689" s="0" t="inlineStr">
@@ -19126,7 +19126,7 @@
       </c>
       <c r="D695" s="0" t="inlineStr">
         <is>
-          <t>982.19000000000005</t>
+          <t>982.19</t>
         </is>
       </c>
       <c r="E695" s="0" t="inlineStr">
@@ -19342,7 +19342,7 @@
       </c>
       <c r="D703" s="0" t="inlineStr">
         <is>
-          <t>941.24000000000001</t>
+          <t>941.24</t>
         </is>
       </c>
       <c r="E703" s="0" t="inlineStr">
